--- a/CustomLocalization/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carcam\Desktop\rt localization 060721\CustomLocalization\Localization\RogueTech\RU\MechAffinity\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Localization'!$A$1:$E$120</definedName>
+  </definedNames>
+  <calcPr calcId="125725" refMode="R1C1" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -751,7 +759,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -779,16 +787,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -835,7 +852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -867,9 +884,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,6 +919,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1076,14 +1095,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="78.28515625" customWidth="1" style="2"/>
   </cols>
@@ -1092,10 +1111,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1160,10 +1179,10 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1194,10 +1213,10 @@
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1296,10 +1315,10 @@
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1364,10 +1383,10 @@
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1466,10 +1485,10 @@
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1534,10 +1553,10 @@
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1636,7 +1655,7 @@
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1738,10 +1757,10 @@
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1874,7 +1893,7 @@
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1908,10 +1927,10 @@
       <c r="A49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1976,10 +1995,10 @@
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2214,10 +2233,10 @@
       <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -2248,10 +2267,10 @@
       <c r="A69" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -2384,10 +2403,10 @@
       <c r="A77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -2452,10 +2471,10 @@
       <c r="A81" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -2486,10 +2505,10 @@
       <c r="A83" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -2588,10 +2607,10 @@
       <c r="A89" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -2690,10 +2709,10 @@
       <c r="A95" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -2792,10 +2811,10 @@
       <c r="A101" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>202</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -2894,10 +2913,10 @@
       <c r="A107" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>211</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -2911,10 +2930,10 @@
       <c r="A108" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>213</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -3030,10 +3049,10 @@
       <c r="A115" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="3" t="s">
         <v>228</v>
       </c>
       <c r="D115" s="2" t="s">

--- a/CustomLocalization/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carcam\Desktop\rt localization 060721\CustomLocalization\Localization\RogueTech\RU\MechAffinity\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
   <si>
     <t>MechAffinity.pilot_assassin.description</t>
   </si>
@@ -30,7 +25,7 @@
     <t>+10% Called Shot. +3 OP Accuracy. +15% Upkeep</t>
   </si>
   <si>
-    <t>+10% Called Shot. +3 OP Accuracy. +15% стоимость содержания</t>
+    <t>+10% Called Shot. +3 точность Offensive Push; +15% стоимость содержания.</t>
   </si>
   <si>
     <t/>
@@ -42,6 +37,9 @@
     <t>Provides + 1 Initiative and several buffs.</t>
   </si>
   <si>
+    <t>Даёт +1 к инициативе и несколько других бонусов.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_assassin.effectData.AthleticQuirkHealth0.Name</t>
   </si>
   <si>
@@ -63,7 +61,7 @@
     <t>+1 Bonus Health. +5% Upkeep</t>
   </si>
   <si>
-    <t>+1 Bonus Health. +5% стоимость содержания</t>
+    <t>+1 к здоровью; +5% стоимость содержания.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_athletic.quirkName</t>
@@ -72,7 +70,7 @@
     <t>Athletic</t>
   </si>
   <si>
-    <t>Спортивный</t>
+    <t>Атлетизм</t>
   </si>
   <si>
     <t>MechAffinity.pilot_bookish.description</t>
@@ -81,7 +79,7 @@
     <t>+5%Sight&amp;Sensors. +5% Pilot Upkeep</t>
   </si>
   <si>
-    <t>+5%Sight&amp;Sensors. +5% стоимость содержания пилота</t>
+    <t>+5% к сенсорам/обзору; +5% стоимость содержания пилота.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_bookish.effectData.ComstarQuirkSensor0.Details</t>
@@ -90,6 +88,9 @@
     <t>Increased Sight/Sensors</t>
   </si>
   <si>
+    <t>Улучшенная дальность сенсоров и обзора</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_bookish.effectData.ComstarQuirkSensor0.Name</t>
   </si>
   <si>
@@ -102,12 +103,18 @@
     <t>Increases spotting distance by 50m.</t>
   </si>
   <si>
+    <t>Увеличивает дистанцию обнаружения целей на 50 м.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_bookish.effectData.ComstarQuirkSpotting1.Name</t>
   </si>
   <si>
     <t>SPOTTING DISTANCE INCREASED</t>
   </si>
   <si>
+    <t>ДИСТАНЦИЯ ОБНАРУЖЕНИЯ ЦЕЛЕЙ УВЕЛИЧЕНА</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_bookish.quirkName</t>
   </si>
   <si>
@@ -123,7 +130,7 @@
     <t>+1 Resolve. Improved Panic Resistance. +5% Upkeep.</t>
   </si>
   <si>
-    <t>+1 Resolve. Improved Panic Resistance. +5% стоимость содержания.</t>
+    <t>+1 решимость; улучш. сопр. панике; +5% стоимость содержания.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_brave.effectData.BraveResolve0.Details</t>
@@ -132,19 +139,25 @@
     <t>Incoming stability damage reduced by 10%.</t>
   </si>
   <si>
+    <t>Получаемый урон устойчивости снижен на 10%.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_brave.effectData.BraveResolve0.Name</t>
   </si>
   <si>
     <t>INCOMING STABILITY DAMAGE DECREASED</t>
   </si>
   <si>
+    <t>ВХОДЯЩИЙ УР. УСТОЙЧИВОСТИ ПОНИЖЕН</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_brave.quirkName</t>
   </si>
   <si>
     <t>Brave</t>
   </si>
   <si>
-    <t>Храбрый</t>
+    <t>Храбрость</t>
   </si>
   <si>
     <t>MechAffinity.pilot_cautious.description</t>
@@ -153,6 +166,9 @@
     <t>+1 Evasion Generated. -1 Accuracy.</t>
   </si>
   <si>
+    <t>+1 шеврон уклонения; -1 точность.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_cautious.effectData.CautiousQuirkEvasion0.Details</t>
   </si>
   <si>
@@ -171,7 +187,7 @@
     <t>Cautious</t>
   </si>
   <si>
-    <t>Осторожный</t>
+    <t>Осторожность</t>
   </si>
   <si>
     <t>MechAffinity.pilot_command.description</t>
@@ -180,7 +196,7 @@
     <t>+1 Lance Resolve. +1 Morale. +10% Pilot Upkeep</t>
   </si>
   <si>
-    <t>+1 Lance Resolve. +1 Morale. +10% стоимость содержания пилота</t>
+    <t>+1 решимость отряда; +1 мораль; +10% стоимость содержания пилота.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_command.effectData.CommanderQuirkResolve0.Details</t>
@@ -189,19 +205,25 @@
     <t>Provides a bonus to actions that generate Morale.</t>
   </si>
   <si>
+    <t>Даёт бонус к действиям, которые повышают мораль.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_command.effectData.CommanderQuirkResolve0.Name</t>
   </si>
   <si>
     <t>MORALE GENERATION INCREASED</t>
   </si>
   <si>
+    <t>РОСТ МОРАЛИ УВЕЛИЧЕН</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_command.quirkName</t>
   </si>
   <si>
     <t>Commander</t>
   </si>
   <si>
-    <t>Командир</t>
+    <t>Командир копья</t>
   </si>
   <si>
     <t>MechAffinity.pilot_comstar.description</t>
@@ -210,7 +232,7 @@
     <t>+5%Sight&amp;Sensors. +0.5 MechTech. +10% Pilot Upkeep</t>
   </si>
   <si>
-    <t>+5%Sight&amp;Sensors. +0.5 MechTech. +10% стоимость содержания пилота</t>
+    <t>+5% к сенсорам/обзору; +0.5 мехтех; +10% стоимость содержания пилота.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_comstar.effectData.ComstarQuirkSensor0.Details</t>
@@ -231,7 +253,7 @@
     <t>Ex-Comstar</t>
   </si>
   <si>
-    <t>Был в КомСтар</t>
+    <t>Служба в КомСтар</t>
   </si>
   <si>
     <t>MechAffinity.pilot_criminal.description</t>
@@ -240,6 +262,9 @@
     <t>10% Chance to Steal 1000 Cbills From OR For You.</t>
   </si>
   <si>
+    <t>Шанс 10% украсть 1000 Cbills у вас ИЛИ для вас.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_criminal.quirkName</t>
   </si>
   <si>
@@ -255,7 +280,7 @@
     <t>-5% Stability Taken. Improved Panic Resist. +5% Upkeep</t>
   </si>
   <si>
-    <t>-5% получ. дестаб. Улучш. сопр. панике. +5% стоимость содержания</t>
+    <t>-5% получ. ур. стаб.; улучш. сопр. панике; +5% стоимость содержания.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_dependable.effectData.DependableStabilityQuirk0.Details</t>
@@ -270,7 +295,7 @@
     <t>Dependable</t>
   </si>
   <si>
-    <t>Надёжный</t>
+    <t>Надёжность</t>
   </si>
   <si>
     <t>MechAffinity.pilot_disgraced.description</t>
@@ -279,6 +304,9 @@
     <t>+1 ECM Shield and Probe. -1 Morale.</t>
   </si>
   <si>
+    <t>+1 ECM укрытие и подавление; -1 мораль.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_disgraced.effectData.DisgracedAS2.Details</t>
   </si>
   <si>
@@ -303,7 +331,7 @@
     <t>Disgraced</t>
   </si>
   <si>
-    <t>Бесчестный</t>
+    <t>Бесчестность</t>
   </si>
   <si>
     <t>MechAffinity.pilot_dishonest.description</t>
@@ -312,13 +340,16 @@
     <t>5% Chance to Steal 500 Cbills From OR For You.</t>
   </si>
   <si>
+    <t>Шанс 5% украсть 500 Cbills у вас ИЛИ для вас.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_dishonest.quirkName</t>
   </si>
   <si>
     <t>Dishonest</t>
   </si>
   <si>
-    <t>Непорядочный</t>
+    <t>Непорядочность</t>
   </si>
   <si>
     <t>MechAffinity.pilot_drunk.description</t>
@@ -327,6 +358,9 @@
     <t>+5% Stability Taken. Avoids Panic Eject. +1 OP Accuracy.</t>
   </si>
   <si>
+    <t>+5% получ. ур. стабильности; не катапультируется при панике; +1 точность Offensive Push.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_drunk.effectData.DrunkStabilityQuirk0.Details</t>
   </si>
   <si>
@@ -348,7 +382,7 @@
     <t>+5% Punch/Kick/Phys Melee Damage % Stability. +20% Upkeep.</t>
   </si>
   <si>
-    <t>+5% Punch/Kick/Phys Melee Damage % Stability. +20% стоимость содержания.</t>
+    <t>+5% урон/ур.стаб. от Punch/Kick/Phys рукопашной; +20% стоимость содержания.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_gladiator.effectData.TSM_Damage_Kick4.Details</t>
@@ -408,7 +442,7 @@
     <t>+1 Morale. +5% Upkeep.</t>
   </si>
   <si>
-    <t>+1 Morale. +5% стоимость содержания.</t>
+    <t>+1 мораль; +5% стоимость содержания.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_honest.quirkName</t>
@@ -417,7 +451,7 @@
     <t>Honest</t>
   </si>
   <si>
-    <t>Честный</t>
+    <t>Честность</t>
   </si>
   <si>
     <t>MechAffinity.pilot_jinxed.description</t>
@@ -426,12 +460,18 @@
     <t>+1 Evasion Gained &amp; Max. -1 Defense.</t>
   </si>
   <si>
+    <t>+1 шеврон уклонения и +1 макс. укл.; -1 защита.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_jinxed.effectData.GainEvasion1.Details</t>
   </si>
   <si>
     <t>This unit generates an extra EVASIVE charge from movement actions (up to its maximum).</t>
   </si>
   <si>
+    <t>Носитель генерирует доп. шеврон уворота от любого движения (до своего максимума).</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_jinxed.effectData.GainEvasion1.Name</t>
   </si>
   <si>
@@ -450,6 +490,9 @@
     <t>Provides a penalty to all attacks against this unit.</t>
   </si>
   <si>
+    <t>Даёт штраф ко всем атакам по носителю.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_jinxed.effectData.StatusEffect-Defense_ToHit-T32.Name</t>
   </si>
   <si>
@@ -462,7 +505,7 @@
     <t>Jinxed</t>
   </si>
   <si>
-    <t>Невезучий</t>
+    <t>Невезение</t>
   </si>
   <si>
     <t>MechAffinity.pilot_klutz.description</t>
@@ -471,6 +514,9 @@
     <t>+1 Evasion Gain. May Eject when Knockdown.</t>
   </si>
   <si>
+    <t>+1 шеврон уклонения; шанс случайно катапультироваться при падении.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_klutz.effectData.KlutzEvasion0.Details</t>
   </si>
   <si>
@@ -492,7 +538,7 @@
     <t>+0.5 MechTech. Reduces Cost and Upkeep for Argo System Upgrades by 5%. 10% Pilot Upkeep.</t>
   </si>
   <si>
-    <t>+0.5 мехтех. Снижает цену и стоимость содержания улучшений Арго на 5%. 10% содержание пилота.</t>
+    <t>+0.5 мехтех; на 5% ниже цена и стоимость содержания улучшений Арго; 10% содержание пилота.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_lostech.quirkName</t>
@@ -510,7 +556,7 @@
     <t>+0.5 Clustering. -10% Jam Chance Multi. +10% Upkeep</t>
   </si>
   <si>
-    <t>+2 Clustering. -10% Jam Chance Multi. +10% стоимость содержания</t>
+    <t>+2 кучность стрельбы; -10% шанс клина; +10% стоимость содержания.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_lucky.effectData.LuckyJamChance0.Details</t>
@@ -519,31 +565,43 @@
     <t>Called Shots twice as reliable</t>
   </si>
   <si>
+    <t>Прицельные выстрелы вдвое надежнее</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lucky.effectData.LuckyJamChance0.Name</t>
   </si>
   <si>
     <t>Improved Called Shot</t>
   </si>
   <si>
+    <t>Улучшенный прицельный выстрел</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lucky.effectData.StatusEffect_BCCluster1.Details</t>
   </si>
   <si>
     <t>Substantially increases the clustering of this unit's LRM weapons.</t>
   </si>
   <si>
+    <t>Существенно увеличивает кучность огня из оружий LRM типа.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lucky.effectData.StatusEffect_BCCluster1.Name</t>
   </si>
   <si>
     <t>Laser Weapon Cluster Chance Improved</t>
   </si>
   <si>
+    <t>Кучность выстрелов из лазерного оружия повышена</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_lucky.quirkName</t>
   </si>
   <si>
     <t>Lucky</t>
   </si>
   <si>
-    <t>Везучий</t>
+    <t>Везение</t>
   </si>
   <si>
     <t>MechAffinity.pilot_mechwarrior.description</t>
@@ -552,7 +610,7 @@
     <t>+1 Initiative. +5% Upkeep</t>
   </si>
   <si>
-    <t>+1 Initiative. +5% стоимость содержания</t>
+    <t>+1 инициатива; +5% стоимость содержания.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_mechwarrior.effectData.MechwarriorQuirkInitiative0.Details</t>
@@ -576,6 +634,9 @@
     <t>Reduces Argo Upkeep by 5%. 5% Chance for 1000Cbills/Day. 10% Pilot Upkeep.</t>
   </si>
   <si>
+    <t>На 5% ниже стоимость содержания Арго; шанс 5% получить 1000 Cbills каждый день; 10% стоимость содержания пилота.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_merchant.quirkName</t>
   </si>
   <si>
@@ -591,7 +652,7 @@
     <t>+1 Bonus Health. -1 Recoil. +1 OP Accuracy. +15% Upkeep</t>
   </si>
   <si>
-    <t>+1 бонус к здоровью. -1 отдача. +1 точность Offensive Push. +15% стоимость содержания</t>
+    <t>+1 бонус к здоровью; -1 отдача; +1 точность Offensive Push; +15% стоимость содержания.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_military.effectData.MilitaryQuirkRecoil0.Details</t>
@@ -606,7 +667,7 @@
     <t>Ex-Military</t>
   </si>
   <si>
-    <t>Бывший военный</t>
+    <t>Армейская служба</t>
   </si>
   <si>
     <t>MechAffinity.pilot_noble.description</t>
@@ -615,13 +676,16 @@
     <t>Reduces Cost and Upkeep for Argo Morale and Med Upgrades by 5%. 15% Pilot Upkeep.</t>
   </si>
   <si>
+    <t>На 5% ниже цена и стоимость содержания улучшений Арго, связанных с медициной и моралью; 15% стоимость содержания пилота.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_noble.quirkName</t>
   </si>
   <si>
     <t>Noble</t>
   </si>
   <si>
-    <t>Аристократ</t>
+    <t>Аристократия</t>
   </si>
   <si>
     <t>MechAffinity.pilot_officer.description</t>
@@ -630,7 +694,7 @@
     <t>+2.5% Lance Sight&amp;Sensors. +10% Upkeep</t>
   </si>
   <si>
-    <t>+2.5% Lance Sight&amp;Sensors. +10% стоимость содержания</t>
+    <t>+2.5% к сенсорам/обзору отряда; +10% стоимость содержания.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_officer.effectData.OfficerLanceSensors0.Details</t>
@@ -660,12 +724,18 @@
     <t>+1 Evasion Ignore. -1 Max Evasion.</t>
   </si>
   <si>
+    <t>Игнорирует +1 шеврон уклонения; -1 макс. уклонение.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_reckless.effectData.RecklessQuirkEvaIgnore0.Details</t>
   </si>
   <si>
     <t>+2Acc, +50% Crit, +30% Range, -50%MinRange for ALL Weapons.</t>
   </si>
   <si>
+    <t>+2 тчн., +50% криты, +30% дальность, -50% мин. дист. для всех оружий.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_reckless.effectData.RecklessQuirkEvaIgnore0.Name</t>
   </si>
   <si>
@@ -684,7 +754,7 @@
     <t>Reckless</t>
   </si>
   <si>
-    <t>Безрассудный</t>
+    <t>Безрассудство</t>
   </si>
   <si>
     <t>MechAffinity.pilot_spacer.description</t>
@@ -693,13 +763,16 @@
     <t>Reduces Argo Upkeep and Upgrade Costs by 5%. 10% Pilot Upkeep.</t>
   </si>
   <si>
+    <t>На 5% ниже цена и стоимость содержания улучшений Арго; 10% стоимость содержания пилота.</t>
+  </si>
+  <si>
     <t>MechAffinity.pilot_spacer.quirkName</t>
   </si>
   <si>
     <t>Spacer</t>
   </si>
   <si>
-    <t>Жизнь в космосе</t>
+    <t>Космонавт</t>
   </si>
   <si>
     <t>MechAffinity.pilot_tech.description</t>
@@ -708,7 +781,7 @@
     <t>+1 MechTech. Reduces Cost and Upkeep for Mechbay Upgrades by 5%. 10% Pilot Upkeep.</t>
   </si>
   <si>
-    <t>+1 MechTech. Reduces Cost and Upkeep for Mechbay Upgrades by 5%. 10% стоимость содержания пилота.</t>
+    <t>+1 мехтех; на 5% ниже цена и стоимость содержания мехотсеков; 10% стоимость содержания пилота.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_tech.quirkName</t>
@@ -726,7 +799,7 @@
     <t>-50% Pilot Upkeep.</t>
   </si>
   <si>
-    <t>-50% стоимость содержания.</t>
+    <t>-50% стоимость содержания пилота.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_wealthy.quirkName</t>
@@ -735,7 +808,7 @@
     <t>Wealthy</t>
   </si>
   <si>
-    <t>Обеспеченный</t>
+    <t>Обеспеченность</t>
   </si>
   <si>
     <t>MechAffinity.pilot_painshunt.description</t>
@@ -759,7 +832,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -852,7 +925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,10 +957,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -919,7 +991,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1095,14 +1166,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="78.28515625" customWidth="1" style="2"/>
   </cols>
@@ -1132,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -1143,13 +1214,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -1160,13 +1231,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -1177,13 +1248,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
@@ -1194,13 +1265,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -1211,13 +1282,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -1228,13 +1299,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -1245,13 +1316,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -1262,13 +1333,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -1279,13 +1350,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -1296,13 +1367,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -1313,13 +1384,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -1330,13 +1401,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
@@ -1347,13 +1418,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -1364,13 +1435,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -1381,13 +1452,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
@@ -1398,13 +1469,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -1415,13 +1486,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
@@ -1432,13 +1503,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -1449,13 +1520,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -1466,13 +1537,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
@@ -1483,13 +1554,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -1500,13 +1571,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -1517,13 +1588,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
@@ -1534,13 +1605,13 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3</v>
@@ -1551,13 +1622,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>3</v>
@@ -1568,13 +1639,13 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
@@ -1585,13 +1656,13 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3</v>
@@ -1602,13 +1673,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>3</v>
@@ -1619,13 +1690,13 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -1636,13 +1707,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
@@ -1653,13 +1724,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>3</v>
@@ -1670,13 +1741,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -1687,13 +1758,13 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
@@ -1704,13 +1775,13 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -1721,13 +1792,13 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -1738,13 +1809,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -1755,13 +1826,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -1772,13 +1843,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -1789,13 +1860,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -1806,13 +1877,13 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -1823,13 +1894,13 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>3</v>
@@ -1840,13 +1911,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
@@ -1857,13 +1928,13 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>3</v>
@@ -1874,13 +1945,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>3</v>
@@ -1891,13 +1962,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
@@ -1908,13 +1979,13 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -1925,13 +1996,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -1942,13 +2013,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
@@ -1959,13 +2030,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -1976,13 +2047,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -1993,13 +2064,13 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
@@ -2010,13 +2081,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
@@ -2027,13 +2098,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>3</v>
@@ -2044,13 +2115,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>3</v>
@@ -2061,13 +2132,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>3</v>
@@ -2078,13 +2149,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>3</v>
@@ -2095,13 +2166,13 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -2112,13 +2183,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>3</v>
@@ -2129,13 +2200,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -2146,13 +2217,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
@@ -2163,13 +2234,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
@@ -2180,13 +2251,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3</v>
@@ -2197,13 +2268,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -2214,13 +2285,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>3</v>
@@ -2231,13 +2302,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>3</v>
@@ -2248,13 +2319,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -2265,13 +2336,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>3</v>
@@ -2282,13 +2353,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -2299,13 +2370,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3</v>
@@ -2316,13 +2387,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -2333,13 +2404,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -2350,13 +2421,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
@@ -2367,13 +2438,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
@@ -2384,13 +2455,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -2401,13 +2472,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>3</v>
@@ -2418,13 +2489,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -2435,13 +2506,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -2452,13 +2523,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -2469,13 +2540,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -2486,13 +2557,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
@@ -2503,13 +2574,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
@@ -2520,13 +2591,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>3</v>
@@ -2537,13 +2608,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
@@ -2554,13 +2625,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>3</v>
@@ -2571,13 +2642,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
@@ -2588,13 +2659,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3</v>
@@ -2605,13 +2676,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>3</v>
@@ -2622,13 +2693,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
@@ -2639,13 +2710,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -2656,13 +2727,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>3</v>
@@ -2673,13 +2744,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
@@ -2690,13 +2761,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
@@ -2707,13 +2778,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -2724,13 +2795,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
@@ -2741,13 +2812,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>3</v>
@@ -2758,13 +2829,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
@@ -2775,13 +2846,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>3</v>
@@ -2792,13 +2863,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
@@ -2809,13 +2880,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
@@ -2826,13 +2897,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>3</v>
@@ -2843,13 +2914,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
@@ -2860,13 +2931,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
@@ -2877,13 +2948,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
@@ -2894,13 +2965,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
@@ -2911,13 +2982,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>3</v>
@@ -2928,13 +2999,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
@@ -2945,13 +3016,13 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>3</v>
@@ -2962,13 +3033,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
@@ -2979,13 +3050,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>3</v>
@@ -2996,13 +3067,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
@@ -3013,13 +3084,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
@@ -3030,13 +3101,13 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
@@ -3047,13 +3118,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
@@ -3064,13 +3135,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>3</v>
@@ -3081,13 +3152,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
@@ -3098,13 +3169,13 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>3</v>
@@ -3115,13 +3186,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E119" s="2">
         <v>119</v>
@@ -3129,13 +3200,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="E120" s="2">
         <v>120</v>

--- a/CustomLocalization/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>MechAffinity.pilot_assassin.description</t>
   </si>
@@ -827,6 +827,30 @@
   </si>
   <si>
     <t>Шунтирование</t>
+  </si>
+  <si>
+    <t>MechAffinity.pilot_athletic.effectData.QuirkAthleticKillThreshold0.Details</t>
+  </si>
+  <si>
+    <t>Heat generation reduced by 10%</t>
+  </si>
+  <si>
+    <t>Нагрев понижен на 10%</t>
+  </si>
+  <si>
+    <t>MechAffinity.pilot_athletic.effectData.QuirkAthleticKillThreshold0.Name</t>
+  </si>
+  <si>
+    <t>Decreases Heat Generation</t>
+  </si>
+  <si>
+    <t>Снижает нагрев</t>
+  </si>
+  <si>
+    <t>MechAffinity.pilot_military.effectData.QuirkMilitaryKillThreshold1.Details</t>
+  </si>
+  <si>
+    <t>MechAffinity.pilot_military.effectData.QuirkMilitaryKillThreshold1.Name</t>
   </si>
 </sst>
 </file>
@@ -860,11 +884,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1167,2049 +1195,2117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="78.28515625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="78.28515625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>33</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="D38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3">
         <v>38</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="3">
         <v>39</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
         <v>42</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>49</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="3">
         <v>51</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
         <v>52</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3">
         <v>54</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="D55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="D56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="3">
         <v>56</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="2">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>57</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="D61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="3">
         <v>61</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3">
         <v>62</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="D63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="3">
         <v>63</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="D64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="3">
         <v>64</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="D65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="2">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
         <v>66</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="D67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="3">
         <v>67</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="2">
+      <c r="D68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="3">
         <v>68</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="D69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3">
         <v>69</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="2">
+      <c r="D70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="D71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3">
         <v>71</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="2">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>72</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="2">
+      <c r="D73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="3">
         <v>73</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="2">
+      <c r="D74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="3">
         <v>74</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="2">
+      <c r="D75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="2">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>76</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="2">
+      <c r="D77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="3">
         <v>77</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="2">
+      <c r="D78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="3">
         <v>78</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="2">
+      <c r="D79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="3">
         <v>79</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="2">
+      <c r="D80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="3">
         <v>80</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="2">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>81</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="2">
+      <c r="D82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="3">
         <v>82</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="2">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>83</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="2">
+      <c r="D84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="3">
         <v>84</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="2">
+      <c r="D85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="3">
         <v>85</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="2">
+      <c r="D86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="3">
         <v>86</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="D87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="3">
         <v>87</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="2">
+      <c r="D88" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="3">
         <v>88</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="2">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>89</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="2">
+      <c r="D90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="2">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>91</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="2">
+      <c r="D92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="3">
         <v>92</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="2">
+      <c r="D93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="3">
         <v>93</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="2">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>94</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="2">
+      <c r="D95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="3">
         <v>95</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="2">
+      <c r="D96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="3">
         <v>96</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="2">
+      <c r="D97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="3">
         <v>97</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="2">
+      <c r="D98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="3">
         <v>98</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="2">
+      <c r="D99" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="3">
         <v>99</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="2">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="2">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>101</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="2">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>102</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="2">
+      <c r="D103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="3">
         <v>103</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="2">
+      <c r="D104" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="3">
         <v>104</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="2">
+      <c r="D105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="3">
         <v>105</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="2">
+      <c r="D106" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="3">
         <v>106</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="2">
+      <c r="D107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="3">
         <v>107</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="2">
+      <c r="D108" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="3">
         <v>108</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="D109" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="3">
         <v>109</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E110" s="2">
+      <c r="D110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="3">
         <v>110</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E111" s="2">
+      <c r="D111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="3">
         <v>111</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E112" s="2">
+      <c r="D112" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="3">
         <v>112</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E113" s="2">
+      <c r="D113" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="3">
         <v>113</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E114" s="2">
+      <c r="D114" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="3">
         <v>114</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E115" s="2">
+      <c r="D115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="3">
         <v>115</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E116" s="2">
+      <c r="D116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="3">
         <v>116</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E117" s="2">
+      <c r="D117" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="3">
         <v>117</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E118" s="2">
+      <c r="D118" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="3">
         <v>118</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="3">
         <v>119</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="3">
         <v>120</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="3">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
@@ -583,7 +583,7 @@
     <t>Substantially increases the clustering of this unit's LRM weapons.</t>
   </si>
   <si>
-    <t>Существенно увеличивает кучность огня из оружий LRM типа.</t>
+    <t>Существенно увеличивает кучность огня из орудий LRM типа.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_lucky.effectData.StatusEffect_BCCluster1.Name</t>
@@ -733,7 +733,7 @@
     <t>+2Acc, +50% Crit, +30% Range, -50%MinRange for ALL Weapons.</t>
   </si>
   <si>
-    <t>+2 тчн., +50% криты, +30% дальность, -50% мин. дист. для всех оружий.</t>
+    <t>+2 тчн., +50% криты, +30% дальность, -50% мин. дист. для всего вооружения.</t>
   </si>
   <si>
     <t>MechAffinity.pilot_reckless.effectData.RecklessQuirkEvaIgnore0.Name</t>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
